--- a/CONSTANTES/constante_estatica.xlsx
+++ b/CONSTANTES/constante_estatica.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\OneDrive\Documents\GitHub\Control-Aerobalancin\CONSTANTES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d998644c2d47160a/Escritorio/CONTROL/PROYECTO/Control-Aerobalancin/CONSTANTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A8CCA8-5766-4095-99A8-17992AD84228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{21A8CCA8-5766-4095-99A8-17992AD84228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54485B7-B8D9-4A12-8C44-D9C22DAB4692}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1575" windowWidth="21600" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1046,7 +1046,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1108,7 +1108,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1213,7 +1213,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1255,25 +1255,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>33.218938172666675</c:v>
+                  <c:v>-3.7059273333333279E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.226204839333342</c:v>
+                  <c:v>3.5607393333333425E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.233471506000008</c:v>
+                  <c:v>1.0827405999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.240738172666674</c:v>
+                  <c:v>1.8094072666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.24800483933334</c:v>
+                  <c:v>2.5360739333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.255271506000007</c:v>
+                  <c:v>3.2627405999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.262538172666673</c:v>
+                  <c:v>3.9894072666666669E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,7 +1351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="937242320"/>
@@ -1413,7 +1413,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1137159504"/>
@@ -1461,7 +1461,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1475,7 +1475,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1512,7 +1512,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1611,7 +1611,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1653,25 +1653,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>33.218938172666675</c:v>
+                  <c:v>-3.7059273333333279E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.226204839333342</c:v>
+                  <c:v>3.5607393333333425E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.233471506000008</c:v>
+                  <c:v>1.0827405999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.240738172666674</c:v>
+                  <c:v>1.8094072666666669E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.24800483933334</c:v>
+                  <c:v>2.5360739333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.255271506000007</c:v>
+                  <c:v>3.2627405999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.262538172666673</c:v>
+                  <c:v>3.9894072666666669E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,7 +1749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1192740208"/>
@@ -1811,7 +1811,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1192743088"/>
@@ -1852,7 +1852,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1866,7 +1866,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1903,7 +1903,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1994,7 +1994,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-CO"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2167,7 +2167,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2205,7 +2205,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="551579792"/>
@@ -2284,7 +2284,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-CO"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2322,7 +2322,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="551590832"/>
@@ -2363,7 +2363,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2377,7 +2377,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2414,7 +2414,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2926,7 +2926,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="579127648"/>
@@ -2988,7 +2988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="579114208"/>
@@ -3029,7 +3029,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5305,15 +5305,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>94423</xdr:rowOff>
+      <xdr:colOff>178075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>567357</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>170623</xdr:rowOff>
+      <xdr:colOff>459683</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5421,6 +5421,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5686,13 +5690,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -5741,8 +5745,8 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <f>3.39</f>
-        <v>3.39</v>
+        <f>3.39/1000</f>
+        <v>3.3900000000000002E-3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5816,12 +5820,12 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <f>E9*5/255</f>
+        <f t="shared" ref="G9:G15" si="0">E9*5/255</f>
         <v>0</v>
       </c>
       <c r="H9">
         <f>($B$4/$G$2)*(($J$2+$J$4/2)*$G$2-(D9+$J$3/2)*$G$1)</f>
-        <v>33.218938172666675</v>
+        <v>-3.7059273333333279E-3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5829,23 +5833,23 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D15" si="0">$B$1+$B$2*C10</f>
+        <f t="shared" ref="D10:D15" si="1">$B$1+$B$2*C10</f>
         <v>1.7149999999999999E-2</v>
       </c>
       <c r="E10">
         <v>18</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F15" si="1">E10*100/255</f>
+        <f t="shared" ref="F10:F15" si="2">E10*100/255</f>
         <v>7.0588235294117645</v>
       </c>
       <c r="G10" s="1">
-        <f>E10*5/255</f>
+        <f t="shared" si="0"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="H10">
-        <f>($B$4/$G$2)*(($J$2+$J$4/2)*$G$2-(D10+$J$3/2)*$G$1)</f>
-        <v>33.226204839333342</v>
+        <f t="shared" ref="H10:H15" si="3">($B$4/$G$2)*(($J$2+$J$4/2)*$G$2-(D10+$J$3/2)*$G$1)</f>
+        <v>3.5607393333333425E-3</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5853,23 +5857,23 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.515E-2</v>
       </c>
       <c r="E11">
         <v>27</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.588235294117647</v>
       </c>
       <c r="G11" s="1">
-        <f>E11*5/255</f>
+        <f t="shared" si="0"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="H11">
-        <f>($B$4/$G$2)*(($J$2+$J$4/2)*$G$2-(D11+$J$3/2)*$G$1)</f>
-        <v>33.233471506000008</v>
+        <f t="shared" si="3"/>
+        <v>1.0827405999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5877,23 +5881,23 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.315E-2</v>
       </c>
       <c r="E12">
         <v>36</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.117647058823529</v>
       </c>
       <c r="G12" s="1">
-        <f>E12*5/255</f>
+        <f t="shared" si="0"/>
         <v>0.70588235294117652</v>
       </c>
       <c r="H12">
-        <f>($B$4/$G$2)*(($J$2+$J$4/2)*$G$2-(D12+$J$3/2)*$G$1)</f>
-        <v>33.240738172666674</v>
+        <f t="shared" si="3"/>
+        <v>1.8094072666666669E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5901,23 +5905,23 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.115E-2</v>
       </c>
       <c r="E13">
         <v>46</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.03921568627451</v>
       </c>
       <c r="G13" s="1">
-        <f>E13*5/255</f>
+        <f t="shared" si="0"/>
         <v>0.90196078431372551</v>
       </c>
       <c r="H13">
-        <f>($B$4/$G$2)*(($J$2+$J$4/2)*$G$2-(D13+$J$3/2)*$G$1)</f>
-        <v>33.24800483933334</v>
+        <f t="shared" si="3"/>
+        <v>2.5360739333333337E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5925,23 +5929,23 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1500000000000001E-3</v>
       </c>
       <c r="E14">
         <v>59</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23.137254901960784</v>
       </c>
       <c r="G14" s="1">
-        <f>E14*5/255</f>
+        <f t="shared" si="0"/>
         <v>1.1568627450980393</v>
       </c>
       <c r="H14">
-        <f>($B$4/$G$2)*(($J$2+$J$4/2)*$G$2-(D14+$J$3/2)*$G$1)</f>
-        <v>33.255271506000007</v>
+        <f t="shared" si="3"/>
+        <v>3.2627405999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5949,23 +5953,23 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1500000000000001E-3</v>
       </c>
       <c r="E15">
         <v>77</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.196078431372548</v>
       </c>
       <c r="G15" s="1">
-        <f>E15*5/255</f>
+        <f t="shared" si="0"/>
         <v>1.5098039215686274</v>
       </c>
       <c r="H15">
-        <f>($B$4/$G$2)*(($J$2+$J$4/2)*$G$2-(D15+$J$3/2)*$G$1)</f>
-        <v>33.262538172666673</v>
+        <f t="shared" si="3"/>
+        <v>3.9894072666666669E-2</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
@@ -5984,7 +5988,7 @@
         <v>302</v>
       </c>
       <c r="E18">
-        <v>1.5E-3</v>
+        <v>1.5403999999999999E-3</v>
       </c>
       <c r="F18" t="s">
         <v>305</v>
@@ -5993,9 +5997,16 @@
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
       <c r="J19" s="5"/>
     </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>0.5*E17</f>
+        <v>1.54E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6007,7 +6018,7 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6318,7 +6329,7 @@
       <selection activeCell="L2" sqref="L2:L128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -20264,11 +20275,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7F0F15-75F1-4C35-AF46-20EB307CBC93}">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -24842,7 +24853,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
